--- a/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
+++ b/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\web-app\BpTPEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\web-app\BpTPEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A82D40F-57A0-49D2-98FA-A9EE23D09C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="14100"/>
+    <workbookView xWindow="13260" yWindow="270" windowWidth="11510" windowHeight="13680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BpTPEU-large" sheetId="2" r:id="rId2"/>
     <sheet name="BpTPEU-small" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Source:</t>
   </si>
@@ -38,12 +50,6 @@
     <t>For the U.S.:</t>
   </si>
   <si>
-    <t>large primary energy output unit</t>
-  </si>
-  <si>
-    <t>small primary energy output unit</t>
-  </si>
-  <si>
     <t>The large primary energy output unit (used in totals graphs) is: quadrillion BTU</t>
   </si>
   <si>
@@ -54,13 +60,42 @@
   </si>
   <si>
     <t>BpTPEU BTU per Small Primary Energy Unit</t>
+  </si>
+  <si>
+    <t>quadrillion btu to million TOE</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=thousand+mj+per+btu&amp;rlz=1C1GCEA_enUS906US906&amp;sxsrf=AOaemvIrFdxFYoh1b8TlmGuYeL3iWmkXPg%3A1642545192568&amp;ei=KEDnYZiPIuDGkPIPoreKqAU&amp;ved=0ahUKEwiYw-vVrbz1AhVgI0QIHaKbAlUQ4dUDCA4&amp;uact=5&amp;oq=thousand+mj+per+btu&amp;gs_lcp=Cgdnd3Mtd2l6EAMyCAghEBYQHRAeOgQIIxAnOgQIABBDOggIABCxAxCDAToOCC4QgAQQsQMQxwEQowI6CwgAEIAEELEDEIMBOgUIABCABDoLCC4QgAQQsQMQgwE6BQguEIAEOgsILhCABBDHARDRAzoICC4QgAQQsQM6BwgAELEDEEM6CAgAEIAEELEDOg4ILhCABBCxAxDHARDRAzoRCC4QgAQQsQMQgwEQxwEQ0QM6BQgAEJECOggIABAWEAoQHjoFCAAQhgM6BQghEKABOgUIIRCrAkoECEEYAEoECEYYAFAAWN8UYK8WaABwAngAgAGVAogBlB2SAQYwLjEwLjmYAQCgAQHAAQE&amp;sclient=gws-wiz</t>
+  </si>
+  <si>
+    <t>btu to MJ</t>
+  </si>
+  <si>
+    <t>btu to TOE</t>
+  </si>
+  <si>
+    <t>million TOE</t>
+  </si>
+  <si>
+    <t>million TOE/btu</t>
+  </si>
+  <si>
+    <t>btu/MJ</t>
+  </si>
+  <si>
+    <t>https://www.unitjuggler.com/convert-energy-from-Btu-to-toe.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.0000000000_);_(* \(#,##0.0000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +105,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,10 +144,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -105,8 +156,13 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -198,6 +254,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -233,6 +306,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,24 +498,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,27 +530,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2.5219021687207001E-8</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="3">
+        <f>B19/B20</f>
+        <v>2.5219021687207E-14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>9.47817E-4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -463,37 +611,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <f>10^15</f>
-        <v>1000000000000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <f>About!$B$22</f>
+        <v>2.5219021687207E-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
     </row>
   </sheetData>
@@ -502,37 +652,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <f>10^3</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <f>About!$B$24</f>
+        <v>9.47817E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
     </row>
   </sheetData>

--- a/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
+++ b/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\web-app\BpTPEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\web-app\BpTPEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A82D40F-57A0-49D2-98FA-A9EE23D09C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8958BCBB-A63B-44A2-ABD6-4D5A8FCCE5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="270" windowWidth="11510" windowHeight="13680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BpTPEU-large" sheetId="2" r:id="rId2"/>
     <sheet name="BpTPEU-small" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Source:</t>
   </si>
@@ -62,28 +62,34 @@
     <t>BpTPEU BTU per Small Primary Energy Unit</t>
   </si>
   <si>
-    <t>quadrillion btu to million TOE</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=thousand+mj+per+btu&amp;rlz=1C1GCEA_enUS906US906&amp;sxsrf=AOaemvIrFdxFYoh1b8TlmGuYeL3iWmkXPg%3A1642545192568&amp;ei=KEDnYZiPIuDGkPIPoreKqAU&amp;ved=0ahUKEwiYw-vVrbz1AhVgI0QIHaKbAlUQ4dUDCA4&amp;uact=5&amp;oq=thousand+mj+per+btu&amp;gs_lcp=Cgdnd3Mtd2l6EAMyCAghEBYQHRAeOgQIIxAnOgQIABBDOggIABCxAxCDAToOCC4QgAQQsQMQxwEQowI6CwgAEIAEELEDEIMBOgUIABCABDoLCC4QgAQQsQMQgwE6BQguEIAEOgsILhCABBDHARDRAzoICC4QgAQQsQM6BwgAELEDEEM6CAgAEIAEELEDOg4ILhCABBCxAxDHARDRAzoRCC4QgAQQsQMQgwEQxwEQ0QM6BQgAEJECOggIABAWEAoQHjoFCAAQhgM6BQghEKABOgUIIRCrAkoECEEYAEoECEYYAFAAWN8UYK8WaABwAngAgAGVAogBlB2SAQYwLjEwLjmYAQCgAQHAAQE&amp;sclient=gws-wiz</t>
-  </si>
-  <si>
     <t>btu to MJ</t>
   </si>
   <si>
-    <t>btu to TOE</t>
-  </si>
-  <si>
     <t>million TOE</t>
   </si>
   <si>
-    <t>million TOE/btu</t>
-  </si>
-  <si>
-    <t>btu/MJ</t>
-  </si>
-  <si>
-    <t>https://www.unitjuggler.com/convert-energy-from-Btu-to-toe.html</t>
+    <t>For South Korea:</t>
+  </si>
+  <si>
+    <t>The large primary energy output unit (used in totals graphs) is: million TOE</t>
+  </si>
+  <si>
+    <t>The small primary energy output unit (used in energy intensity per unit GDP graphs) is: MJ</t>
+  </si>
+  <si>
+    <t>btu to million TOE</t>
+  </si>
+  <si>
+    <t>BTU per MJ</t>
+  </si>
+  <si>
+    <t>BTU per TOE</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tonne_of_oil_equivalent#:~:text=1%20toe%20%3D%2039%2C683%2C207.2%20British%20thermal%20units%20(BTU)</t>
+  </si>
+  <si>
+    <t>https://www.unitconverters.net/energy/megajoule-to-btu-it.htm</t>
   </si>
 </sst>
 </file>
@@ -92,8 +98,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0000000000_);_(* \(#,##0.0000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000000000_);_(* \(#,##0.0000000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -157,9 +163,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -499,30 +505,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,78 +536,81 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2.5219021687207001E-8</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
+        <v>39683207.200000003</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6">
         <f>10^6</f>
         <v>1000000</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
-        <f>B19/B20</f>
-        <v>2.5219021687207E-14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>9.47817E-4</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
+      <c r="B23">
+        <v>947.81712000000005</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -618,32 +627,32 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <f>About!$B$22</f>
-        <v>2.5219021687207E-14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <f>About!B20*About!B21</f>
+        <v>39683207200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
   </sheetData>
@@ -658,33 +667,33 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <f>About!$B$24</f>
-        <v>9.47817E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <f>About!$B$23</f>
+        <v>947.81712000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
   </sheetData>
